--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -19,7 +19,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>对应战斗单元表的天赋code</t>
+    <t>对应fightitemconfig表的天赋code</t>
   </si>
   <si>
     <t>天赋层级</t>
@@ -1032,12 +1032,12 @@
   <dimension ref="C3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
   </cols>

--- a/Excel/TalentConfig.xlsx
+++ b/Excel/TalentConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏设计\像素塔防\Game-1-master2\Game-1-master\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DCD348-5772-495F-8278-E596707221A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -59,19 +65,38 @@
   </si>
   <si>
     <t>BurnTalent</t>
+  </si>
+  <si>
+    <t>美术资源</t>
+  </si>
+  <si>
+    <t>ResourceCode</t>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
+    <t>skill4</t>
+  </si>
+  <si>
+    <t>skill5</t>
+  </si>
+  <si>
+    <t>skill6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,345 +105,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -426,251 +142,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,65 +152,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -750,7 +248,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1023,27 +521,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
-    <col min="6" max="6" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -1058,9 +557,12 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="1" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
@@ -1075,9 +577,12 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="1" t="s">
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -1092,9 +597,12 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="1">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -1109,9 +617,12 @@
       <c r="G6">
         <v>1002</v>
       </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="1">
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -1126,9 +637,12 @@
       <c r="G7">
         <v>1003</v>
       </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="1">
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
@@ -1143,9 +657,12 @@
       <c r="G8">
         <v>1004</v>
       </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="1">
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -1160,9 +677,12 @@
       <c r="G9">
         <v>1005</v>
       </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="1">
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -1177,9 +697,12 @@
       <c r="G10">
         <v>1006</v>
       </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="1">
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -1194,9 +717,12 @@
       <c r="G11">
         <v>1007</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="1">
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
@@ -1211,9 +737,12 @@
       <c r="G12">
         <v>1009</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="1">
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
@@ -1228,9 +757,12 @@
       <c r="G13">
         <v>1010</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="1">
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" t="s">
@@ -1245,9 +777,12 @@
       <c r="G14">
         <v>1011</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="1">
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
@@ -1262,9 +797,12 @@
       <c r="G15">
         <v>1012</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="1">
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
@@ -1279,9 +817,12 @@
       <c r="G16">
         <v>1013</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="1">
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>12</v>
       </c>
       <c r="D17" t="s">
@@ -1296,9 +837,12 @@
       <c r="G17">
         <v>1014</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="1">
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>13</v>
       </c>
       <c r="D18" t="s">
@@ -1313,9 +857,12 @@
       <c r="G18">
         <v>1016</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="1">
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>14</v>
       </c>
       <c r="D19" t="s">
@@ -1330,9 +877,12 @@
       <c r="G19">
         <v>1017</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="1">
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>15</v>
       </c>
       <c r="D20" t="s">
@@ -1347,9 +897,12 @@
       <c r="G20">
         <v>1018</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="1">
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>16</v>
       </c>
       <c r="D21" t="s">
@@ -1364,9 +917,12 @@
       <c r="G21">
         <v>1019</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="1">
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>17</v>
       </c>
       <c r="D22" t="s">
@@ -1381,9 +937,12 @@
       <c r="G22">
         <v>1020</v>
       </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="1">
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>18</v>
       </c>
       <c r="D23" t="s">
@@ -1398,9 +957,12 @@
       <c r="G23">
         <v>1021</v>
       </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="1">
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>19</v>
       </c>
       <c r="D24" t="s">
@@ -1415,9 +977,12 @@
       <c r="G24">
         <v>1023</v>
       </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="1">
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" t="s">
@@ -1432,9 +997,12 @@
       <c r="G25">
         <v>1024</v>
       </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="1">
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>21</v>
       </c>
       <c r="D26" t="s">
@@ -1449,9 +1017,12 @@
       <c r="G26">
         <v>1025</v>
       </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="1">
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
         <v>22</v>
       </c>
       <c r="D27" t="s">
@@ -1466,9 +1037,12 @@
       <c r="G27">
         <v>1026</v>
       </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="1">
+      <c r="H27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>23</v>
       </c>
       <c r="D28" t="s">
@@ -1483,9 +1057,12 @@
       <c r="G28">
         <v>1027</v>
       </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="1">
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>24</v>
       </c>
       <c r="D29" t="s">
@@ -1500,10 +1077,13 @@
       <c r="G29">
         <v>1028</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>